--- a/FedRAMP LMH Master.xlsx
+++ b/FedRAMP LMH Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasmadja/Desktop/GitHub/FedRAMP_Baseline_Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEBF7A-C00B-444F-B1BC-297143F40A2B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D836FA-3353-0846-A013-8B951A2014F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4340" yWindow="-21140" windowWidth="38380" windowHeight="21140" xr2:uid="{514A9AA6-8070-F44E-9B59-4508AD2A5A69}"/>
   </bookViews>
@@ -7418,7 +7418,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7426,11 +7426,11 @@
     <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="101" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="100.83203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="4.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="58.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="100.83203125" style="6" customWidth="1"/>
     <col min="9" max="11" width="22.5" style="6" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -7478,7 +7478,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="315" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>152</v>
       </c>
@@ -7589,7 +7589,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>153</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>154</v>
       </c>
@@ -7663,7 +7663,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>155</v>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -7774,7 +7774,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>158</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>160</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>163</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>164</v>
       </c>
@@ -8033,7 +8033,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>165</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>197</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>199</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>200</v>
       </c>
@@ -9365,7 +9365,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>201</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>202</v>
       </c>
@@ -9439,7 +9439,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>203</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>205</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>207</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>208</v>
       </c>
@@ -9661,7 +9661,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>209</v>
       </c>
@@ -9698,7 +9698,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>210</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>211</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>213</v>
       </c>
@@ -9846,7 +9846,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="405" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>214</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="330" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>215</v>
       </c>
@@ -9920,7 +9920,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="345" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>216</v>
       </c>
@@ -9957,7 +9957,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>217</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>218</v>
       </c>
@@ -10031,7 +10031,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>219</v>
       </c>
@@ -10068,7 +10068,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="375" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>220</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>222</v>
       </c>
@@ -10179,7 +10179,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>223</v>
       </c>
@@ -10216,7 +10216,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>224</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>225</v>
       </c>
@@ -10290,7 +10290,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>226</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>231</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="330" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>232</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>233</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>235</v>
       </c>
@@ -10660,7 +10660,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>236</v>
       </c>
@@ -10697,7 +10697,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>237</v>
       </c>
@@ -10919,7 +10919,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>243</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="405" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>245</v>
       </c>
@@ -11030,7 +11030,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>246</v>
       </c>
@@ -11141,7 +11141,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>249</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>252</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>253</v>
       </c>
@@ -11326,7 +11326,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>254</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>256</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="315" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>257</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>260</v>
       </c>
@@ -11585,7 +11585,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="345" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>261</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>262</v>
       </c>
@@ -11659,7 +11659,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>263</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>267</v>
       </c>
@@ -11881,7 +11881,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>269</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>270</v>
       </c>
@@ -11955,7 +11955,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>271</v>
       </c>
@@ -11992,7 +11992,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>272</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>274</v>
       </c>
@@ -12103,7 +12103,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>275</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>276</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>279</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>280</v>
       </c>
@@ -12362,7 +12362,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>282</v>
       </c>
@@ -12399,7 +12399,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>283</v>
       </c>
@@ -12436,7 +12436,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>284</v>
       </c>
@@ -12473,7 +12473,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>285</v>
       </c>
@@ -12510,7 +12510,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>286</v>
       </c>
@@ -12621,7 +12621,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>289</v>
       </c>
@@ -12658,7 +12658,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>290</v>
       </c>
@@ -12695,7 +12695,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>291</v>
       </c>
@@ -12769,7 +12769,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>293</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>294</v>
       </c>
@@ -12880,7 +12880,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>296</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>298</v>
       </c>
@@ -12991,7 +12991,7 @@
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>299</v>
       </c>
@@ -13028,7 +13028,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>300</v>
       </c>
@@ -13139,7 +13139,7 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
     </row>
-    <row r="155" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>303</v>
       </c>
@@ -13361,7 +13361,7 @@
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
     </row>
-    <row r="161" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>309</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
     </row>
-    <row r="163" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>311</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
     </row>
-    <row r="164" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>312</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
     </row>
-    <row r="166" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>314</v>
       </c>
@@ -13583,7 +13583,7 @@
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
     </row>
-    <row r="167" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>315</v>
       </c>
@@ -13657,7 +13657,7 @@
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
     </row>
-    <row r="169" spans="1:13" ht="360" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>3</v>
       </c>
@@ -13694,7 +13694,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>317</v>
       </c>
@@ -13731,7 +13731,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>318</v>
       </c>
@@ -13768,7 +13768,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="390" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>319</v>
       </c>
@@ -13879,7 +13879,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>322</v>
       </c>
@@ -13953,7 +13953,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>324</v>
       </c>
@@ -13990,7 +13990,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>325</v>
       </c>
@@ -14064,7 +14064,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="405" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>327</v>
       </c>
@@ -14138,7 +14138,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>329</v>
       </c>
@@ -14212,7 +14212,7 @@
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
     </row>
-    <row r="184" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>331</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
     </row>
-    <row r="185" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>332</v>
       </c>
@@ -14286,7 +14286,7 @@
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
     </row>
-    <row r="186" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>333</v>
       </c>
@@ -14360,7 +14360,7 @@
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
     </row>
-    <row r="188" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>335</v>
       </c>
@@ -14434,7 +14434,7 @@
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
     </row>
-    <row r="190" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>337</v>
       </c>
@@ -14471,7 +14471,7 @@
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
     </row>
-    <row r="191" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>338</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
     </row>
-    <row r="192" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>339</v>
       </c>
@@ -14545,7 +14545,7 @@
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
     </row>
-    <row r="193" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="330" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>340</v>
       </c>
@@ -14582,7 +14582,7 @@
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
     </row>
-    <row r="194" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>341</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
     </row>
-    <row r="198" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>345</v>
       </c>
@@ -14767,7 +14767,7 @@
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
     </row>
-    <row r="199" spans="1:13" ht="390" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>346</v>
       </c>
@@ -14804,7 +14804,7 @@
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
     </row>
-    <row r="200" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>347</v>
       </c>
@@ -14841,7 +14841,7 @@
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
     </row>
-    <row r="201" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>348</v>
       </c>
@@ -14915,7 +14915,7 @@
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
     </row>
-    <row r="203" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>350</v>
       </c>
@@ -14989,7 +14989,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
     </row>
-    <row r="205" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>352</v>
       </c>
@@ -15026,7 +15026,7 @@
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
     </row>
-    <row r="206" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>353</v>
       </c>
@@ -15063,7 +15063,7 @@
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
     </row>
-    <row r="207" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>354</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
     </row>
-    <row r="209" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>356</v>
       </c>
@@ -15174,7 +15174,7 @@
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
     </row>
-    <row r="210" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>357</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
     </row>
-    <row r="211" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>358</v>
       </c>
@@ -15248,7 +15248,7 @@
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
     </row>
-    <row r="212" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>359</v>
       </c>
@@ -15322,7 +15322,7 @@
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
     </row>
-    <row r="214" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>361</v>
       </c>
@@ -15470,7 +15470,7 @@
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
     </row>
-    <row r="218" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>365</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
     </row>
-    <row r="219" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>366</v>
       </c>
@@ -15618,7 +15618,7 @@
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
     </row>
-    <row r="222" spans="1:13" ht="315" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>369</v>
       </c>
@@ -15655,7 +15655,7 @@
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
     </row>
-    <row r="223" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>370</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
     </row>
-    <row r="224" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>371</v>
       </c>
@@ -15803,7 +15803,7 @@
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
     </row>
-    <row r="227" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>374</v>
       </c>
@@ -15840,7 +15840,7 @@
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
     </row>
-    <row r="228" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>375</v>
       </c>
@@ -15877,7 +15877,7 @@
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
     </row>
-    <row r="229" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>376</v>
       </c>
@@ -15914,7 +15914,7 @@
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
     </row>
-    <row r="230" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>377</v>
       </c>
@@ -15951,7 +15951,7 @@
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
     </row>
-    <row r="231" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>378</v>
       </c>
@@ -15988,7 +15988,7 @@
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
     </row>
-    <row r="232" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>379</v>
       </c>
@@ -16025,7 +16025,7 @@
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
     </row>
-    <row r="233" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>380</v>
       </c>
@@ -16210,7 +16210,7 @@
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
     </row>
-    <row r="238" spans="1:13" ht="390" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>385</v>
       </c>
@@ -16284,7 +16284,7 @@
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
     </row>
-    <row r="240" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>387</v>
       </c>
@@ -16321,7 +16321,7 @@
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
     </row>
-    <row r="241" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>388</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="L241" s="3"/>
       <c r="M241" s="3"/>
     </row>
-    <row r="242" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>389</v>
       </c>
@@ -16395,7 +16395,7 @@
       <c r="L242" s="3"/>
       <c r="M242" s="3"/>
     </row>
-    <row r="243" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>390</v>
       </c>
@@ -16469,7 +16469,7 @@
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
     </row>
-    <row r="245" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>392</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="L246" s="3"/>
       <c r="M246" s="3"/>
     </row>
-    <row r="247" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>394</v>
       </c>
@@ -16580,7 +16580,7 @@
       <c r="L247" s="3"/>
       <c r="M247" s="3"/>
     </row>
-    <row r="248" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>395</v>
       </c>
@@ -16617,7 +16617,7 @@
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
     </row>
-    <row r="249" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>396</v>
       </c>
@@ -16654,7 +16654,7 @@
       <c r="L249" s="3"/>
       <c r="M249" s="3"/>
     </row>
-    <row r="250" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>397</v>
       </c>
@@ -16691,7 +16691,7 @@
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
     </row>
-    <row r="251" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>398</v>
       </c>
@@ -16802,7 +16802,7 @@
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
     </row>
-    <row r="254" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>401</v>
       </c>
@@ -16839,7 +16839,7 @@
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
     </row>
-    <row r="255" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>402</v>
       </c>
@@ -16950,7 +16950,7 @@
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
     </row>
-    <row r="258" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>405</v>
       </c>
@@ -16987,7 +16987,7 @@
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
     </row>
-    <row r="259" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>406</v>
       </c>
@@ -17024,7 +17024,7 @@
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
     </row>
-    <row r="260" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>407</v>
       </c>
@@ -17135,7 +17135,7 @@
       <c r="L262" s="3"/>
       <c r="M262" s="3"/>
     </row>
-    <row r="263" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>410</v>
       </c>
@@ -17172,7 +17172,7 @@
       <c r="L263" s="3"/>
       <c r="M263" s="3"/>
     </row>
-    <row r="264" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>411</v>
       </c>
@@ -17209,7 +17209,7 @@
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
     </row>
-    <row r="265" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>412</v>
       </c>
@@ -17246,7 +17246,7 @@
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
     </row>
-    <row r="266" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>413</v>
       </c>
@@ -17283,7 +17283,7 @@
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
     </row>
-    <row r="267" spans="1:13" ht="285" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>414</v>
       </c>
@@ -17320,7 +17320,7 @@
       <c r="L267" s="3"/>
       <c r="M267" s="3"/>
     </row>
-    <row r="268" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>415</v>
       </c>
@@ -17357,7 +17357,7 @@
       <c r="L268" s="3"/>
       <c r="M268" s="3"/>
     </row>
-    <row r="269" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>416</v>
       </c>
@@ -17394,7 +17394,7 @@
       <c r="L269" s="3"/>
       <c r="M269" s="3"/>
     </row>
-    <row r="270" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>417</v>
       </c>
@@ -17431,7 +17431,7 @@
       <c r="L270" s="3"/>
       <c r="M270" s="3"/>
     </row>
-    <row r="271" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>418</v>
       </c>
@@ -17542,7 +17542,7 @@
       <c r="L273" s="3"/>
       <c r="M273" s="3"/>
     </row>
-    <row r="274" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>421</v>
       </c>
@@ -17579,7 +17579,7 @@
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
     </row>
-    <row r="275" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>422</v>
       </c>
@@ -17616,7 +17616,7 @@
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
     </row>
-    <row r="276" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>423</v>
       </c>
@@ -17653,7 +17653,7 @@
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
     </row>
-    <row r="277" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>424</v>
       </c>
@@ -17764,7 +17764,7 @@
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
     </row>
-    <row r="280" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>427</v>
       </c>
@@ -17801,7 +17801,7 @@
       <c r="L280" s="3"/>
       <c r="M280" s="3"/>
     </row>
-    <row r="281" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>428</v>
       </c>
@@ -17875,7 +17875,7 @@
       <c r="L282" s="3"/>
       <c r="M282" s="3"/>
     </row>
-    <row r="283" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>430</v>
       </c>
@@ -17949,7 +17949,7 @@
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
     </row>
-    <row r="285" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>432</v>
       </c>
@@ -18060,7 +18060,7 @@
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
     </row>
-    <row r="288" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>435</v>
       </c>
@@ -18134,7 +18134,7 @@
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
     </row>
-    <row r="290" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>437</v>
       </c>
@@ -18208,7 +18208,7 @@
       <c r="L291" s="3"/>
       <c r="M291" s="3"/>
     </row>
-    <row r="292" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>439</v>
       </c>
@@ -18319,7 +18319,7 @@
       <c r="L294" s="3"/>
       <c r="M294" s="3"/>
     </row>
-    <row r="295" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>442</v>
       </c>
@@ -18393,7 +18393,7 @@
       <c r="L296" s="3"/>
       <c r="M296" s="3"/>
     </row>
-    <row r="297" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>444</v>
       </c>
@@ -18430,7 +18430,7 @@
       <c r="L297" s="3"/>
       <c r="M297" s="3"/>
     </row>
-    <row r="298" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>445</v>
       </c>
@@ -18467,7 +18467,7 @@
       <c r="L298" s="3"/>
       <c r="M298" s="3"/>
     </row>
-    <row r="299" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>446</v>
       </c>
@@ -18541,7 +18541,7 @@
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
     </row>
-    <row r="301" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>448</v>
       </c>
@@ -18652,7 +18652,7 @@
       <c r="L303" s="3"/>
       <c r="M303" s="3"/>
     </row>
-    <row r="304" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>451</v>
       </c>
@@ -18689,7 +18689,7 @@
       <c r="L304" s="3"/>
       <c r="M304" s="3"/>
     </row>
-    <row r="305" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>452</v>
       </c>
@@ -18763,7 +18763,7 @@
       <c r="L306" s="3"/>
       <c r="M306" s="3"/>
     </row>
-    <row r="307" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>454</v>
       </c>
@@ -18800,7 +18800,7 @@
       <c r="L307" s="3"/>
       <c r="M307" s="3"/>
     </row>
-    <row r="308" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>455</v>
       </c>
@@ -18874,7 +18874,7 @@
       <c r="L309" s="3"/>
       <c r="M309" s="3"/>
     </row>
-    <row r="310" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" ht="405" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>457</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="L314" s="3"/>
       <c r="M314" s="3"/>
     </row>
-    <row r="315" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>462</v>
       </c>
@@ -19207,7 +19207,7 @@
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
     </row>
-    <row r="319" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>466</v>
       </c>
@@ -19392,7 +19392,7 @@
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
     </row>
-    <row r="324" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>471</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
     </row>
-    <row r="325" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>472</v>
       </c>
@@ -19466,7 +19466,7 @@
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
     </row>
-    <row r="326" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>473</v>
       </c>
@@ -19503,7 +19503,7 @@
       <c r="L326" s="3"/>
       <c r="M326" s="3"/>
     </row>
-    <row r="327" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>474</v>
       </c>
@@ -19577,7 +19577,7 @@
       <c r="L328" s="3"/>
       <c r="M328" s="3"/>
     </row>
-    <row r="329" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>476</v>
       </c>
@@ -19614,7 +19614,7 @@
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
     </row>
-    <row r="330" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>477</v>
       </c>
@@ -19651,7 +19651,7 @@
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
     </row>
-    <row r="331" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>478</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="L333" s="3"/>
       <c r="M333" s="3"/>
     </row>
-    <row r="334" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>481</v>
       </c>
@@ -19836,7 +19836,7 @@
       <c r="L335" s="3"/>
       <c r="M335" s="3"/>
     </row>
-    <row r="336" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>483</v>
       </c>
@@ -19947,7 +19947,7 @@
       <c r="L338" s="3"/>
       <c r="M338" s="3"/>
     </row>
-    <row r="339" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>486</v>
       </c>
@@ -19984,7 +19984,7 @@
       <c r="L339" s="3"/>
       <c r="M339" s="3"/>
     </row>
-    <row r="340" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>487</v>
       </c>
@@ -20021,7 +20021,7 @@
       <c r="L340" s="3"/>
       <c r="M340" s="3"/>
     </row>
-    <row r="341" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>488</v>
       </c>
@@ -20058,7 +20058,7 @@
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
     </row>
-    <row r="342" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>489</v>
       </c>
@@ -20095,7 +20095,7 @@
       <c r="L342" s="3"/>
       <c r="M342" s="3"/>
     </row>
-    <row r="343" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>490</v>
       </c>
@@ -20132,7 +20132,7 @@
       <c r="L343" s="3"/>
       <c r="M343" s="3"/>
     </row>
-    <row r="344" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>491</v>
       </c>
@@ -20169,7 +20169,7 @@
       <c r="L344" s="3"/>
       <c r="M344" s="3"/>
     </row>
-    <row r="345" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" ht="330" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>492</v>
       </c>
@@ -20243,7 +20243,7 @@
       <c r="L346" s="3"/>
       <c r="M346" s="3"/>
     </row>
-    <row r="347" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>494</v>
       </c>
@@ -20280,7 +20280,7 @@
       <c r="L347" s="3"/>
       <c r="M347" s="3"/>
     </row>
-    <row r="348" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>495</v>
       </c>
@@ -20391,7 +20391,7 @@
       <c r="L350" s="3"/>
       <c r="M350" s="3"/>
     </row>
-    <row r="351" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>498</v>
       </c>
@@ -20465,7 +20465,7 @@
       <c r="L352" s="3"/>
       <c r="M352" s="3"/>
     </row>
-    <row r="353" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>500</v>
       </c>
@@ -20502,7 +20502,7 @@
       <c r="L353" s="3"/>
       <c r="M353" s="3"/>
     </row>
-    <row r="354" spans="1:13" ht="285" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>501</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="L354" s="3"/>
       <c r="M354" s="3"/>
     </row>
-    <row r="355" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>502</v>
       </c>
@@ -20576,7 +20576,7 @@
       <c r="L355" s="3"/>
       <c r="M355" s="3"/>
     </row>
-    <row r="356" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>503</v>
       </c>
@@ -20613,7 +20613,7 @@
       <c r="L356" s="3"/>
       <c r="M356" s="3"/>
     </row>
-    <row r="357" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>504</v>
       </c>
@@ -20650,7 +20650,7 @@
       <c r="L357" s="3"/>
       <c r="M357" s="3"/>
     </row>
-    <row r="358" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>505</v>
       </c>
@@ -20724,7 +20724,7 @@
       <c r="L359" s="3"/>
       <c r="M359" s="3"/>
     </row>
-    <row r="360" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>507</v>
       </c>
@@ -20798,7 +20798,7 @@
       <c r="L361" s="3"/>
       <c r="M361" s="3"/>
     </row>
-    <row r="362" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>509</v>
       </c>
@@ -20909,7 +20909,7 @@
       <c r="L364" s="3"/>
       <c r="M364" s="3"/>
     </row>
-    <row r="365" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>512</v>
       </c>
@@ -20946,7 +20946,7 @@
       <c r="L365" s="3"/>
       <c r="M365" s="3"/>
     </row>
-    <row r="366" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>513</v>
       </c>
@@ -20983,7 +20983,7 @@
       <c r="L366" s="3"/>
       <c r="M366" s="3"/>
     </row>
-    <row r="367" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>514</v>
       </c>
@@ -21020,7 +21020,7 @@
       <c r="L367" s="3"/>
       <c r="M367" s="3"/>
     </row>
-    <row r="368" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>515</v>
       </c>
@@ -21131,7 +21131,7 @@
       <c r="L370" s="3"/>
       <c r="M370" s="3"/>
     </row>
-    <row r="371" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>518</v>
       </c>
@@ -21168,7 +21168,7 @@
       <c r="L371" s="3"/>
       <c r="M371" s="3"/>
     </row>
-    <row r="372" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>519</v>
       </c>
@@ -21205,7 +21205,7 @@
       <c r="L372" s="3"/>
       <c r="M372" s="3"/>
     </row>
-    <row r="373" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>520</v>
       </c>
@@ -21279,7 +21279,7 @@
       <c r="L374" s="3"/>
       <c r="M374" s="3"/>
     </row>
-    <row r="375" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>51</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>52</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>53</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>54</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>55</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>522</v>
       </c>
@@ -21491,7 +21491,7 @@
       <c r="L380" s="3"/>
       <c r="M380" s="3"/>
     </row>
-    <row r="381" spans="1:13" ht="390" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>523</v>
       </c>
@@ -21565,7 +21565,7 @@
       <c r="L382" s="3"/>
       <c r="M382" s="3"/>
     </row>
-    <row r="383" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>525</v>
       </c>
@@ -21602,7 +21602,7 @@
       <c r="L383" s="3"/>
       <c r="M383" s="3"/>
     </row>
-    <row r="384" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>526</v>
       </c>
@@ -21639,7 +21639,7 @@
       <c r="L384" s="3"/>
       <c r="M384" s="3"/>
     </row>
-    <row r="385" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>527</v>
       </c>
@@ -21676,7 +21676,7 @@
       <c r="L385" s="3"/>
       <c r="M385" s="3"/>
     </row>
-    <row r="386" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>528</v>
       </c>
@@ -21713,7 +21713,7 @@
       <c r="L386" s="3"/>
       <c r="M386" s="3"/>
     </row>
-    <row r="387" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>529</v>
       </c>
@@ -21787,7 +21787,7 @@
       <c r="L388" s="3"/>
       <c r="M388" s="3"/>
     </row>
-    <row r="389" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>531</v>
       </c>
@@ -21861,7 +21861,7 @@
       <c r="L390" s="3"/>
       <c r="M390" s="3"/>
     </row>
-    <row r="391" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>533</v>
       </c>
@@ -21898,7 +21898,7 @@
       <c r="L391" s="3"/>
       <c r="M391" s="3"/>
     </row>
-    <row r="392" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>534</v>
       </c>
@@ -22009,7 +22009,7 @@
       <c r="L394" s="3"/>
       <c r="M394" s="3"/>
     </row>
-    <row r="395" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>537</v>
       </c>
@@ -22083,7 +22083,7 @@
       <c r="L396" s="3"/>
       <c r="M396" s="3"/>
     </row>
-    <row r="397" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>539</v>
       </c>
@@ -22120,7 +22120,7 @@
       <c r="L397" s="3"/>
       <c r="M397" s="3"/>
     </row>
-    <row r="398" spans="1:13" ht="285" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>540</v>
       </c>
@@ -22305,7 +22305,7 @@
       <c r="L402" s="3"/>
       <c r="M402" s="3"/>
     </row>
-    <row r="403" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>545</v>
       </c>
@@ -22453,7 +22453,7 @@
       <c r="L406" s="3"/>
       <c r="M406" s="3"/>
     </row>
-    <row r="407" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>549</v>
       </c>
@@ -22490,7 +22490,7 @@
       <c r="L407" s="3"/>
       <c r="M407" s="3"/>
     </row>
-    <row r="408" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" ht="405" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>550</v>
       </c>
@@ -22601,7 +22601,7 @@
       <c r="L410" s="3"/>
       <c r="M410" s="3"/>
     </row>
-    <row r="411" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>553</v>
       </c>
@@ -22638,7 +22638,7 @@
       <c r="L411" s="3"/>
       <c r="M411" s="3"/>
     </row>
-    <row r="412" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>554</v>
       </c>
@@ -22897,7 +22897,7 @@
       <c r="L418" s="3"/>
       <c r="M418" s="3"/>
     </row>
-    <row r="419" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>561</v>
       </c>
@@ -22934,7 +22934,7 @@
       <c r="L419" s="3"/>
       <c r="M419" s="3"/>
     </row>
-    <row r="420" spans="1:13" ht="360" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>562</v>
       </c>
@@ -22971,7 +22971,7 @@
       <c r="L420" s="3"/>
       <c r="M420" s="3"/>
     </row>
-    <row r="421" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>563</v>
       </c>
@@ -23008,7 +23008,7 @@
       <c r="L421" s="3"/>
       <c r="M421" s="3"/>
     </row>
-    <row r="422" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>564</v>
       </c>
@@ -23045,7 +23045,7 @@
       <c r="L422" s="3"/>
       <c r="M422" s="3"/>
     </row>
-    <row r="423" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>565</v>
       </c>
@@ -23267,7 +23267,7 @@
       <c r="L428" s="3"/>
       <c r="M428" s="3"/>
     </row>
-    <row r="429" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>571</v>
       </c>
@@ -23304,7 +23304,7 @@
       <c r="L429" s="3"/>
       <c r="M429" s="3"/>
     </row>
-    <row r="430" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>572</v>
       </c>
@@ -23378,7 +23378,7 @@
       <c r="L431" s="3"/>
       <c r="M431" s="3"/>
     </row>
-    <row r="432" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>574</v>
       </c>
@@ -23415,7 +23415,7 @@
       <c r="L432" s="3"/>
       <c r="M432" s="3"/>
     </row>
-    <row r="433" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>575</v>
       </c>
@@ -23600,7 +23600,7 @@
       <c r="L437" s="3"/>
       <c r="M437" s="3"/>
     </row>
-    <row r="438" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>580</v>
       </c>
@@ -23822,7 +23822,7 @@
       <c r="L443" s="3"/>
       <c r="M443" s="3"/>
     </row>
-    <row r="444" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" ht="330" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>586</v>
       </c>
@@ -23859,7 +23859,7 @@
       <c r="L444" s="3"/>
       <c r="M444" s="3"/>
     </row>
-    <row r="445" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>587</v>
       </c>
@@ -24007,7 +24007,7 @@
       <c r="L448" s="3"/>
       <c r="M448" s="3"/>
     </row>
-    <row r="449" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>591</v>
       </c>
@@ -24155,7 +24155,7 @@
       <c r="L452" s="3"/>
       <c r="M452" s="3"/>
     </row>
-    <row r="453" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>595</v>
       </c>
@@ -24192,7 +24192,7 @@
       <c r="L453" s="3"/>
       <c r="M453" s="3"/>
     </row>
-    <row r="454" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>596</v>
       </c>
@@ -24229,7 +24229,7 @@
       <c r="L454" s="3"/>
       <c r="M454" s="3"/>
     </row>
-    <row r="455" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>597</v>
       </c>
@@ -24303,7 +24303,7 @@
       <c r="L456" s="3"/>
       <c r="M456" s="3"/>
     </row>
-    <row r="457" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>599</v>
       </c>
@@ -24414,7 +24414,7 @@
       <c r="L459" s="3"/>
       <c r="M459" s="3"/>
     </row>
-    <row r="460" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>602</v>
       </c>
@@ -24488,7 +24488,7 @@
       <c r="L461" s="3"/>
       <c r="M461" s="3"/>
     </row>
-    <row r="462" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>604</v>
       </c>
@@ -24525,7 +24525,7 @@
       <c r="L462" s="3"/>
       <c r="M462" s="3"/>
     </row>
-    <row r="463" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>605</v>
       </c>
@@ -24599,7 +24599,7 @@
       <c r="L464" s="3"/>
       <c r="M464" s="3"/>
     </row>
-    <row r="465" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>607</v>
       </c>
@@ -24673,7 +24673,7 @@
       <c r="L466" s="3"/>
       <c r="M466" s="3"/>
     </row>
-    <row r="467" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>609</v>
       </c>
@@ -24710,7 +24710,7 @@
       <c r="L467" s="3"/>
       <c r="M467" s="3"/>
     </row>
-    <row r="468" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>610</v>
       </c>
@@ -24747,7 +24747,7 @@
       <c r="L468" s="3"/>
       <c r="M468" s="3"/>
     </row>
-    <row r="469" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>611</v>
       </c>
@@ -24784,7 +24784,7 @@
       <c r="L469" s="3"/>
       <c r="M469" s="3"/>
     </row>
-    <row r="470" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>612</v>
       </c>
@@ -24858,7 +24858,7 @@
       <c r="L471" s="3"/>
       <c r="M471" s="3"/>
     </row>
-    <row r="472" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>614</v>
       </c>
@@ -24932,7 +24932,7 @@
       <c r="L473" s="3"/>
       <c r="M473" s="3"/>
     </row>
-    <row r="474" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
         <v>616</v>
       </c>
@@ -24969,7 +24969,7 @@
       <c r="L474" s="3"/>
       <c r="M474" s="3"/>
     </row>
-    <row r="475" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
         <v>617</v>
       </c>
@@ -25006,7 +25006,7 @@
       <c r="L475" s="3"/>
       <c r="M475" s="3"/>
     </row>
-    <row r="476" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>618</v>
       </c>
@@ -25043,7 +25043,7 @@
       <c r="L476" s="3"/>
       <c r="M476" s="3"/>
     </row>
-    <row r="477" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>619</v>
       </c>
@@ -25080,7 +25080,7 @@
       <c r="L477" s="3"/>
       <c r="M477" s="3"/>
     </row>
-    <row r="478" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
         <v>620</v>
       </c>
@@ -25117,7 +25117,7 @@
       <c r="L478" s="3"/>
       <c r="M478" s="3"/>
     </row>
-    <row r="479" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>621</v>
       </c>
@@ -25191,7 +25191,7 @@
       <c r="L480" s="3"/>
       <c r="M480" s="3"/>
     </row>
-    <row r="481" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>623</v>
       </c>
@@ -25339,7 +25339,7 @@
       <c r="L484" s="3"/>
       <c r="M484" s="3"/>
     </row>
-    <row r="485" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>627</v>
       </c>
@@ -25376,7 +25376,7 @@
       <c r="L485" s="3"/>
       <c r="M485" s="3"/>
     </row>
-    <row r="486" spans="1:13" ht="315" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>628</v>
       </c>
@@ -25413,7 +25413,7 @@
       <c r="L486" s="3"/>
       <c r="M486" s="3"/>
     </row>
-    <row r="487" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>629</v>
       </c>
@@ -25561,7 +25561,7 @@
       <c r="L490" s="3"/>
       <c r="M490" s="3"/>
     </row>
-    <row r="491" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>633</v>
       </c>
@@ -25598,7 +25598,7 @@
       <c r="L491" s="3"/>
       <c r="M491" s="3"/>
     </row>
-    <row r="492" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>634</v>
       </c>
@@ -25635,7 +25635,7 @@
       <c r="L492" s="3"/>
       <c r="M492" s="3"/>
     </row>
-    <row r="493" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" ht="405" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
         <v>635</v>
       </c>
@@ -25746,7 +25746,7 @@
       <c r="L495" s="3"/>
       <c r="M495" s="3"/>
     </row>
-    <row r="496" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>638</v>
       </c>
@@ -25783,7 +25783,7 @@
       <c r="L496" s="3"/>
       <c r="M496" s="3"/>
     </row>
-    <row r="497" spans="1:13" ht="315" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>639</v>
       </c>
@@ -25857,7 +25857,7 @@
       <c r="L498" s="3"/>
       <c r="M498" s="3"/>
     </row>
-    <row r="499" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>641</v>
       </c>
@@ -25894,7 +25894,7 @@
       <c r="L499" s="3"/>
       <c r="M499" s="3"/>
     </row>
-    <row r="500" spans="1:13" ht="315" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
         <v>642</v>
       </c>
@@ -25931,7 +25931,7 @@
       <c r="L500" s="3"/>
       <c r="M500" s="3"/>
     </row>
-    <row r="501" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
         <v>643</v>
       </c>
@@ -26079,7 +26079,7 @@
       <c r="L504" s="3"/>
       <c r="M504" s="3"/>
     </row>
-    <row r="505" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
         <v>647</v>
       </c>
@@ -26116,7 +26116,7 @@
       <c r="L505" s="3"/>
       <c r="M505" s="3"/>
     </row>
-    <row r="506" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
         <v>648</v>
       </c>
@@ -26153,7 +26153,7 @@
       <c r="L506" s="3"/>
       <c r="M506" s="3"/>
     </row>
-    <row r="507" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A507" s="4" t="s">
         <v>649</v>
       </c>
@@ -26190,7 +26190,7 @@
       <c r="L507" s="3"/>
       <c r="M507" s="3"/>
     </row>
-    <row r="508" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
         <v>650</v>
       </c>
@@ -26301,7 +26301,7 @@
       <c r="L510" s="3"/>
       <c r="M510" s="3"/>
     </row>
-    <row r="511" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A511" s="4" t="s">
         <v>653</v>
       </c>
@@ -26338,7 +26338,7 @@
       <c r="L511" s="3"/>
       <c r="M511" s="3"/>
     </row>
-    <row r="512" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>654</v>
       </c>
@@ -26375,7 +26375,7 @@
       <c r="L512" s="3"/>
       <c r="M512" s="3"/>
     </row>
-    <row r="513" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
         <v>655</v>
       </c>
@@ -26412,7 +26412,7 @@
       <c r="L513" s="3"/>
       <c r="M513" s="3"/>
     </row>
-    <row r="514" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
         <v>656</v>
       </c>
@@ -26449,7 +26449,7 @@
       <c r="L514" s="3"/>
       <c r="M514" s="3"/>
     </row>
-    <row r="515" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
         <v>657</v>
       </c>
@@ -26486,7 +26486,7 @@
       <c r="L515" s="3"/>
       <c r="M515" s="3"/>
     </row>
-    <row r="516" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
         <v>658</v>
       </c>
@@ -26560,7 +26560,7 @@
       <c r="L517" s="3"/>
       <c r="M517" s="3"/>
     </row>
-    <row r="518" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
         <v>660</v>
       </c>
@@ -26634,7 +26634,7 @@
       <c r="L519" s="3"/>
       <c r="M519" s="3"/>
     </row>
-    <row r="520" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
         <v>662</v>
       </c>
@@ -26671,7 +26671,7 @@
       <c r="L520" s="3"/>
       <c r="M520" s="3"/>
     </row>
-    <row r="521" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
         <v>663</v>
       </c>
@@ -26708,7 +26708,7 @@
       <c r="L521" s="3"/>
       <c r="M521" s="3"/>
     </row>
-    <row r="522" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
         <v>664</v>
       </c>
@@ -26819,7 +26819,7 @@
       <c r="L524" s="3"/>
       <c r="M524" s="3"/>
     </row>
-    <row r="525" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
         <v>667</v>
       </c>
@@ -26856,7 +26856,7 @@
       <c r="L525" s="3"/>
       <c r="M525" s="3"/>
     </row>
-    <row r="526" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>668</v>
       </c>
@@ -27078,7 +27078,7 @@
       <c r="L531" s="3"/>
       <c r="M531" s="3"/>
     </row>
-    <row r="532" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
         <v>674</v>
       </c>
@@ -27115,7 +27115,7 @@
       <c r="L532" s="3"/>
       <c r="M532" s="3"/>
     </row>
-    <row r="533" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
         <v>675</v>
       </c>
@@ -27152,7 +27152,7 @@
       <c r="L533" s="3"/>
       <c r="M533" s="3"/>
     </row>
-    <row r="534" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
         <v>676</v>
       </c>
@@ -27411,7 +27411,7 @@
       <c r="L540" s="3"/>
       <c r="M540" s="3"/>
     </row>
-    <row r="541" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A541" s="4" t="s">
         <v>683</v>
       </c>
@@ -27485,7 +27485,7 @@
       <c r="L542" s="3"/>
       <c r="M542" s="3"/>
     </row>
-    <row r="543" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A543" s="4" t="s">
         <v>685</v>
       </c>
@@ -27522,7 +27522,7 @@
       <c r="L543" s="3"/>
       <c r="M543" s="3"/>
     </row>
-    <row r="544" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
         <v>686</v>
       </c>
@@ -27596,7 +27596,7 @@
       <c r="L545" s="3"/>
       <c r="M545" s="3"/>
     </row>
-    <row r="546" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" ht="345" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
         <v>688</v>
       </c>
@@ -27633,7 +27633,7 @@
       <c r="L546" s="3"/>
       <c r="M546" s="3"/>
     </row>
-    <row r="547" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
         <v>689</v>
       </c>
@@ -27670,7 +27670,7 @@
       <c r="L547" s="3"/>
       <c r="M547" s="3"/>
     </row>
-    <row r="548" spans="1:13" ht="390" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
         <v>690</v>
       </c>
@@ -27707,7 +27707,7 @@
       <c r="L548" s="3"/>
       <c r="M548" s="3"/>
     </row>
-    <row r="549" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A549" s="4" t="s">
         <v>691</v>
       </c>
@@ -27966,7 +27966,7 @@
       <c r="L555" s="3"/>
       <c r="M555" s="3"/>
     </row>
-    <row r="556" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
         <v>698</v>
       </c>
@@ -28003,7 +28003,7 @@
       <c r="L556" s="3"/>
       <c r="M556" s="3"/>
     </row>
-    <row r="557" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A557" s="4" t="s">
         <v>699</v>
       </c>
@@ -28225,7 +28225,7 @@
       <c r="L562" s="3"/>
       <c r="M562" s="3"/>
     </row>
-    <row r="563" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>705</v>
       </c>
@@ -28262,7 +28262,7 @@
       <c r="L563" s="3"/>
       <c r="M563" s="3"/>
     </row>
-    <row r="564" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
         <v>706</v>
       </c>
@@ -28854,7 +28854,7 @@
       <c r="L579" s="3"/>
       <c r="M579" s="3"/>
     </row>
-    <row r="580" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
         <v>722</v>
       </c>
@@ -29298,7 +29298,7 @@
       <c r="L591" s="3"/>
       <c r="M591" s="3"/>
     </row>
-    <row r="592" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
         <v>734</v>
       </c>
@@ -29335,7 +29335,7 @@
       <c r="L592" s="3"/>
       <c r="M592" s="3"/>
     </row>
-    <row r="593" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" ht="405" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
         <v>735</v>
       </c>
@@ -29631,7 +29631,7 @@
       <c r="L600" s="3"/>
       <c r="M600" s="3"/>
     </row>
-    <row r="601" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
         <v>743</v>
       </c>
@@ -29668,7 +29668,7 @@
       <c r="L601" s="3"/>
       <c r="M601" s="3"/>
     </row>
-    <row r="602" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
         <v>744</v>
       </c>
@@ -29742,7 +29742,7 @@
       <c r="L603" s="3"/>
       <c r="M603" s="3"/>
     </row>
-    <row r="604" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
         <v>746</v>
       </c>
@@ -29964,7 +29964,7 @@
       <c r="L609" s="3"/>
       <c r="M609" s="3"/>
     </row>
-    <row r="610" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
         <v>752</v>
       </c>
@@ -30075,7 +30075,7 @@
       <c r="L612" s="3"/>
       <c r="M612" s="3"/>
     </row>
-    <row r="613" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A613" s="4" t="s">
         <v>755</v>
       </c>
@@ -30223,7 +30223,7 @@
       <c r="L616" s="3"/>
       <c r="M616" s="3"/>
     </row>
-    <row r="617" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
         <v>91</v>
       </c>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="330" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>759</v>
       </c>
@@ -30369,7 +30369,7 @@
       <c r="L620" s="3"/>
       <c r="M620" s="3"/>
     </row>
-    <row r="621" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
         <v>762</v>
       </c>
@@ -30406,7 +30406,7 @@
       <c r="L621" s="3"/>
       <c r="M621" s="3"/>
     </row>
-    <row r="622" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
         <v>763</v>
       </c>
@@ -30443,7 +30443,7 @@
       <c r="L622" s="3"/>
       <c r="M622" s="3"/>
     </row>
-    <row r="623" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A623" s="4" t="s">
         <v>764</v>
       </c>
@@ -30517,7 +30517,7 @@
       <c r="L624" s="3"/>
       <c r="M624" s="3"/>
     </row>
-    <row r="625" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
         <v>766</v>
       </c>
@@ -30554,7 +30554,7 @@
       <c r="L625" s="3"/>
       <c r="M625" s="3"/>
     </row>
-    <row r="626" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13" ht="345" x14ac:dyDescent="0.2">
       <c r="A626" s="4" t="s">
         <v>767</v>
       </c>
@@ -30628,7 +30628,7 @@
       <c r="L627" s="3"/>
       <c r="M627" s="3"/>
     </row>
-    <row r="628" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>769</v>
       </c>
@@ -30702,7 +30702,7 @@
       <c r="L629" s="3"/>
       <c r="M629" s="3"/>
     </row>
-    <row r="630" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>771</v>
       </c>
@@ -30739,7 +30739,7 @@
       <c r="L630" s="3"/>
       <c r="M630" s="3"/>
     </row>
-    <row r="631" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
         <v>772</v>
       </c>
@@ -30924,7 +30924,7 @@
       <c r="L635" s="3"/>
       <c r="M635" s="3"/>
     </row>
-    <row r="636" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A636" s="4" t="s">
         <v>777</v>
       </c>
@@ -30998,7 +30998,7 @@
       <c r="L637" s="3"/>
       <c r="M637" s="3"/>
     </row>
-    <row r="638" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
         <v>779</v>
       </c>
@@ -31035,7 +31035,7 @@
       <c r="L638" s="3"/>
       <c r="M638" s="3"/>
     </row>
-    <row r="639" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13" ht="330" x14ac:dyDescent="0.2">
       <c r="A639" s="4" t="s">
         <v>780</v>
       </c>
@@ -31146,7 +31146,7 @@
       <c r="L641" s="3"/>
       <c r="M641" s="3"/>
     </row>
-    <row r="642" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A642" s="4" t="s">
         <v>783</v>
       </c>
@@ -31183,7 +31183,7 @@
       <c r="L642" s="3"/>
       <c r="M642" s="3"/>
     </row>
-    <row r="643" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A643" s="4" t="s">
         <v>784</v>
       </c>
@@ -31331,7 +31331,7 @@
       <c r="L646" s="3"/>
       <c r="M646" s="3"/>
     </row>
-    <row r="647" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A647" s="4" t="s">
         <v>788</v>
       </c>
@@ -31368,7 +31368,7 @@
       <c r="L647" s="3"/>
       <c r="M647" s="3"/>
     </row>
-    <row r="648" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A648" s="4" t="s">
         <v>789</v>
       </c>
@@ -31405,7 +31405,7 @@
       <c r="L648" s="3"/>
       <c r="M648" s="3"/>
     </row>
-    <row r="649" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A649" s="4" t="s">
         <v>790</v>
       </c>
@@ -31442,7 +31442,7 @@
       <c r="L649" s="3"/>
       <c r="M649" s="3"/>
     </row>
-    <row r="650" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A650" s="4" t="s">
         <v>791</v>
       </c>
@@ -31479,7 +31479,7 @@
       <c r="L650" s="3"/>
       <c r="M650" s="3"/>
     </row>
-    <row r="651" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A651" s="4" t="s">
         <v>792</v>
       </c>
@@ -31590,7 +31590,7 @@
       <c r="L653" s="3"/>
       <c r="M653" s="3"/>
     </row>
-    <row r="654" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A654" s="4" t="s">
         <v>795</v>
       </c>
@@ -31775,7 +31775,7 @@
       <c r="L658" s="3"/>
       <c r="M658" s="3"/>
     </row>
-    <row r="659" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A659" s="4" t="s">
         <v>800</v>
       </c>
@@ -31960,7 +31960,7 @@
       <c r="L663" s="3"/>
       <c r="M663" s="3"/>
     </row>
-    <row r="664" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A664" s="4" t="s">
         <v>805</v>
       </c>
@@ -31997,7 +31997,7 @@
       <c r="L664" s="3"/>
       <c r="M664" s="3"/>
     </row>
-    <row r="665" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A665" s="4" t="s">
         <v>806</v>
       </c>
@@ -32219,7 +32219,7 @@
       <c r="L670" s="3"/>
       <c r="M670" s="3"/>
     </row>
-    <row r="671" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13" ht="195" x14ac:dyDescent="0.2">
       <c r="A671" s="4" t="s">
         <v>812</v>
       </c>
@@ -32256,7 +32256,7 @@
       <c r="L671" s="3"/>
       <c r="M671" s="3"/>
     </row>
-    <row r="672" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A672" s="4" t="s">
         <v>813</v>
       </c>
@@ -32367,7 +32367,7 @@
       <c r="L674" s="3"/>
       <c r="M674" s="3"/>
     </row>
-    <row r="675" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A675" s="4" t="s">
         <v>816</v>
       </c>
@@ -32441,7 +32441,7 @@
       <c r="L676" s="3"/>
       <c r="M676" s="3"/>
     </row>
-    <row r="677" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A677" s="4" t="s">
         <v>818</v>
       </c>
@@ -32478,7 +32478,7 @@
       <c r="L677" s="3"/>
       <c r="M677" s="3"/>
     </row>
-    <row r="678" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A678" s="4" t="s">
         <v>819</v>
       </c>
@@ -32515,7 +32515,7 @@
       <c r="L678" s="3"/>
       <c r="M678" s="3"/>
     </row>
-    <row r="679" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A679" s="4" t="s">
         <v>820</v>
       </c>
@@ -32700,7 +32700,7 @@
       <c r="L683" s="3"/>
       <c r="M683" s="3"/>
     </row>
-    <row r="684" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A684" s="4" t="s">
         <v>825</v>
       </c>
@@ -32737,7 +32737,7 @@
       <c r="L684" s="3"/>
       <c r="M684" s="3"/>
     </row>
-    <row r="685" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A685" s="4" t="s">
         <v>826</v>
       </c>
@@ -32774,7 +32774,7 @@
       <c r="L685" s="3"/>
       <c r="M685" s="3"/>
     </row>
-    <row r="686" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A686" s="4" t="s">
         <v>827</v>
       </c>
@@ -32848,7 +32848,7 @@
       <c r="L687" s="3"/>
       <c r="M687" s="3"/>
     </row>
-    <row r="688" spans="1:13" ht="165" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13" ht="375" x14ac:dyDescent="0.2">
       <c r="A688" s="4" t="s">
         <v>829</v>
       </c>
@@ -32959,7 +32959,7 @@
       <c r="L690" s="3"/>
       <c r="M690" s="3"/>
     </row>
-    <row r="691" spans="1:13" ht="345" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A691" s="4" t="s">
         <v>832</v>
       </c>
@@ -32996,7 +32996,7 @@
       <c r="L691" s="3"/>
       <c r="M691" s="3"/>
     </row>
-    <row r="692" spans="1:13" ht="360" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A692" s="4" t="s">
         <v>833</v>
       </c>
@@ -33033,7 +33033,7 @@
       <c r="L692" s="3"/>
       <c r="M692" s="3"/>
     </row>
-    <row r="693" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A693" s="4" t="s">
         <v>834</v>
       </c>
@@ -33070,7 +33070,7 @@
       <c r="L693" s="3"/>
       <c r="M693" s="3"/>
     </row>
-    <row r="694" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A694" s="4" t="s">
         <v>835</v>
       </c>
@@ -33107,7 +33107,7 @@
       <c r="L694" s="3"/>
       <c r="M694" s="3"/>
     </row>
-    <row r="695" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A695" s="4" t="s">
         <v>836</v>
       </c>
@@ -33292,7 +33292,7 @@
       <c r="L699" s="3"/>
       <c r="M699" s="3"/>
     </row>
-    <row r="700" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A700" s="4" t="s">
         <v>841</v>
       </c>
@@ -33329,7 +33329,7 @@
       <c r="L700" s="3"/>
       <c r="M700" s="3"/>
     </row>
-    <row r="701" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A701" s="4" t="s">
         <v>842</v>
       </c>
@@ -33514,7 +33514,7 @@
       <c r="L705" s="3"/>
       <c r="M705" s="3"/>
     </row>
-    <row r="706" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A706" s="4" t="s">
         <v>847</v>
       </c>
@@ -33699,7 +33699,7 @@
       <c r="L710" s="3"/>
       <c r="M710" s="3"/>
     </row>
-    <row r="711" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A711" s="4" t="s">
         <v>852</v>
       </c>
@@ -33736,7 +33736,7 @@
       <c r="L711" s="3"/>
       <c r="M711" s="3"/>
     </row>
-    <row r="712" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A712" s="4" t="s">
         <v>853</v>
       </c>
@@ -33810,7 +33810,7 @@
       <c r="L713" s="3"/>
       <c r="M713" s="3"/>
     </row>
-    <row r="714" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A714" s="4" t="s">
         <v>855</v>
       </c>
@@ -33847,7 +33847,7 @@
       <c r="L714" s="3"/>
       <c r="M714" s="3"/>
     </row>
-    <row r="715" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13" ht="270" x14ac:dyDescent="0.2">
       <c r="A715" s="4" t="s">
         <v>856</v>
       </c>
@@ -34069,7 +34069,7 @@
       <c r="L720" s="3"/>
       <c r="M720" s="3"/>
     </row>
-    <row r="721" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A721" s="4" t="s">
         <v>862</v>
       </c>
@@ -34180,7 +34180,7 @@
       <c r="L723" s="3"/>
       <c r="M723" s="3"/>
     </row>
-    <row r="724" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A724" s="4" t="s">
         <v>865</v>
       </c>
@@ -34254,7 +34254,7 @@
       <c r="L725" s="3"/>
       <c r="M725" s="3"/>
     </row>
-    <row r="726" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A726" s="4" t="s">
         <v>867</v>
       </c>
@@ -34328,7 +34328,7 @@
       <c r="L727" s="3"/>
       <c r="M727" s="3"/>
     </row>
-    <row r="728" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A728" s="4" t="s">
         <v>869</v>
       </c>
@@ -34365,7 +34365,7 @@
       <c r="L728" s="3"/>
       <c r="M728" s="3"/>
     </row>
-    <row r="729" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A729" s="4" t="s">
         <v>870</v>
       </c>
@@ -34402,7 +34402,7 @@
       <c r="L729" s="3"/>
       <c r="M729" s="3"/>
     </row>
-    <row r="730" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A730" s="4" t="s">
         <v>871</v>
       </c>
@@ -34476,7 +34476,7 @@
       <c r="L731" s="3"/>
       <c r="M731" s="3"/>
     </row>
-    <row r="732" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A732" s="4" t="s">
         <v>873</v>
       </c>
@@ -34513,7 +34513,7 @@
       <c r="L732" s="3"/>
       <c r="M732" s="3"/>
     </row>
-    <row r="733" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13" ht="180" x14ac:dyDescent="0.2">
       <c r="A733" s="4" t="s">
         <v>874</v>
       </c>
@@ -34550,7 +34550,7 @@
       <c r="L733" s="3"/>
       <c r="M733" s="3"/>
     </row>
-    <row r="734" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13" ht="225" x14ac:dyDescent="0.2">
       <c r="A734" s="4" t="s">
         <v>875</v>
       </c>
@@ -34587,7 +34587,7 @@
       <c r="L734" s="3"/>
       <c r="M734" s="3"/>
     </row>
-    <row r="735" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A735" s="4" t="s">
         <v>876</v>
       </c>
@@ -34624,7 +34624,7 @@
       <c r="L735" s="3"/>
       <c r="M735" s="3"/>
     </row>
-    <row r="736" spans="1:13" ht="150" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A736" s="4" t="s">
         <v>877</v>
       </c>
@@ -34661,7 +34661,7 @@
       <c r="L736" s="3"/>
       <c r="M736" s="3"/>
     </row>
-    <row r="737" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13" ht="360" x14ac:dyDescent="0.2">
       <c r="A737" s="4" t="s">
         <v>878</v>
       </c>
@@ -34809,7 +34809,7 @@
       <c r="L740" s="3"/>
       <c r="M740" s="3"/>
     </row>
-    <row r="741" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A741" s="4" t="s">
         <v>882</v>
       </c>
@@ -34846,7 +34846,7 @@
       <c r="L741" s="3"/>
       <c r="M741" s="3"/>
     </row>
-    <row r="742" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A742" s="4" t="s">
         <v>883</v>
       </c>
@@ -34883,7 +34883,7 @@
       <c r="L742" s="3"/>
       <c r="M742" s="3"/>
     </row>
-    <row r="743" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A743" s="4" t="s">
         <v>884</v>
       </c>
@@ -34994,7 +34994,7 @@
       <c r="L745" s="3"/>
       <c r="M745" s="3"/>
     </row>
-    <row r="746" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A746" s="4" t="s">
         <v>887</v>
       </c>
@@ -35068,7 +35068,7 @@
       <c r="L747" s="3"/>
       <c r="M747" s="3"/>
     </row>
-    <row r="748" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A748" s="4" t="s">
         <v>889</v>
       </c>
@@ -35327,7 +35327,7 @@
       <c r="L754" s="3"/>
       <c r="M754" s="3"/>
     </row>
-    <row r="755" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:13" ht="285" x14ac:dyDescent="0.2">
       <c r="A755" s="4" t="s">
         <v>896</v>
       </c>
@@ -35438,7 +35438,7 @@
       <c r="L757" s="3"/>
       <c r="M757" s="3"/>
     </row>
-    <row r="758" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:13" ht="300" x14ac:dyDescent="0.2">
       <c r="A758" s="4" t="s">
         <v>899</v>
       </c>
@@ -35475,7 +35475,7 @@
       <c r="L758" s="3"/>
       <c r="M758" s="3"/>
     </row>
-    <row r="759" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A759" s="4" t="s">
         <v>900</v>
       </c>
@@ -35512,7 +35512,7 @@
       <c r="L759" s="3"/>
       <c r="M759" s="3"/>
     </row>
-    <row r="760" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A760" s="4" t="s">
         <v>901</v>
       </c>
@@ -35586,7 +35586,7 @@
       <c r="L761" s="3"/>
       <c r="M761" s="3"/>
     </row>
-    <row r="762" spans="1:13" ht="225" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A762" s="4" t="s">
         <v>903</v>
       </c>
@@ -35808,7 +35808,7 @@
       <c r="L767" s="3"/>
       <c r="M767" s="3"/>
     </row>
-    <row r="768" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13" ht="390" x14ac:dyDescent="0.2">
       <c r="A768" s="4" t="s">
         <v>909</v>
       </c>
@@ -35845,7 +35845,7 @@
       <c r="L768" s="3"/>
       <c r="M768" s="3"/>
     </row>
-    <row r="769" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13" ht="315" x14ac:dyDescent="0.2">
       <c r="A769" s="4" t="s">
         <v>910</v>
       </c>
@@ -35882,7 +35882,7 @@
       <c r="L769" s="3"/>
       <c r="M769" s="3"/>
     </row>
-    <row r="770" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13" ht="345" x14ac:dyDescent="0.2">
       <c r="A770" s="4" t="s">
         <v>4</v>
       </c>
